--- a/csv/export041614/mudderbikes2014.xlsx
+++ b/csv/export041614/mudderbikes2014.xlsx
@@ -1033,8 +1033,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1185,7 +1191,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1204,6 +1210,9 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1222,6 +1231,9 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1576,7 +1588,7 @@
   <dimension ref="A1:AI761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
